--- a/project/templates/Functional test_case.xlsx
+++ b/project/templates/Functional test_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C4811BD2-96AE-314A-86FD-CF34B24CFF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B0ABFE-55FB-8847-96C9-FE2F89941A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="3" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="1" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="190" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1430,7 +1430,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1455,35 +1455,24 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1510,13 +1499,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1547,8 +1536,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1601,32 +1589,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,10 +1620,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1651,7 +1635,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,7 +1644,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1672,7 +1656,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1687,7 +1671,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1696,24 +1680,22 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="190" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1726,40 +1708,37 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1769,19 +1748,19 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1792,49 +1771,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1868,10 +1804,10 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1885,13 +1821,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1900,9 +1836,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1920,6 +1853,49 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2334,13 +2310,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -2351,11 +2327,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2365,36 +2341,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="142" t="str">
+      <c r="C6" s="157" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="141"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2403,102 +2379,93 @@
     <row r="8" spans="1:7">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="21" customFormat="1">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="1:7" s="16" customFormat="1">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="25" customFormat="1" ht="28">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="1:7" s="20" customFormat="1" ht="28">
+      <c r="B12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B13" s="31"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="1:7" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B14" s="31"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B15" s="31"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="1:7" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B16" s="31"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="2:7" s="25" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B17" s="31"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="2:7" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" s="20" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="2:7" s="20" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="2:7" s="20" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2522,207 +2489,207 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEEC800-0BA0-DF42-BAF3-9D3D5760E564}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="33" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="33" customWidth="1"/>
     <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="25">
-      <c r="B1" s="39"/>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="34"/>
+      <c r="D1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B2" s="39"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="34"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146" t="str">
+      <c r="C3" s="160"/>
+      <c r="D3" s="161" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146" t="str">
+      <c r="C4" s="160"/>
+      <c r="D4" s="161" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-    </row>
-    <row r="5" spans="2:6" s="43" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="143" t="s">
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+    </row>
+    <row r="5" spans="2:6" s="38" customFormat="1" ht="84.75" customHeight="1">
+      <c r="B5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144" t="s">
+      <c r="C5" s="158"/>
+      <c r="D5" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="2:6" s="46" customFormat="1">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-    </row>
-    <row r="8" spans="2:6" s="49" customFormat="1" ht="21" customHeight="1">
-      <c r="B8" s="50" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" s="40" customFormat="1">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="2:6" s="43" customFormat="1" ht="21" customHeight="1">
+      <c r="B8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="47" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="54">
+      <c r="B9" s="48">
         <v>1</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="2:6" ht="14">
-      <c r="B10" s="54">
+      <c r="B10" s="48">
         <v>2</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="2:6" ht="14">
-      <c r="B11" s="54">
+      <c r="B11" s="48">
         <v>3</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="155" t="s">
+      <c r="D11" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="51"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="57"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="51"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="57"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="51"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="57"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2752,8 +2719,8 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10:H12"/>
+      <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2764,433 +2731,432 @@
     <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="15" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="63" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.83203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="64" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="57" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="70" customFormat="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="71" t="s">
+    <row r="1" spans="1:10" s="63" customFormat="1">
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:10" s="63" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70" t="s">
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="66"/>
+    </row>
+    <row r="5" spans="1:10" s="63" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="150"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="70" t="s">
+      <c r="F5" s="165"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="80">
+    <row r="6" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="72">
         <f>COUNTIF(F9:F997,"Pass")</f>
         <v>10</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="73">
         <f>COUNTIF(F9:F997,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="73">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="74">
         <f>COUNTIF(F$9:F$997,"N/A")</f>
         <v>1</v>
       </c>
-      <c r="E6" s="147">
+      <c r="E6" s="162">
         <v>11</v>
       </c>
-      <c r="F6" s="147"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="70" t="s">
+      <c r="F6" s="162"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="165" t="s">
+    <row r="7" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:10" s="63" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="165" t="s">
+      <c r="E8" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="165" t="s">
+      <c r="F8" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="165" t="s">
+      <c r="G8" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="165" t="s">
+      <c r="H8" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="86"/>
-    </row>
-    <row r="9" spans="1:10" s="96" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A9" s="173" t="s">
+      <c r="I8" s="78"/>
+    </row>
+    <row r="9" spans="1:10" s="88" customFormat="1" ht="85.5" customHeight="1">
+      <c r="A9" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="157" t="s">
+      <c r="E9" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="158" t="s">
+      <c r="F9" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="157" t="s">
+      <c r="G9" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="157"/>
-      <c r="I9" s="95"/>
-    </row>
-    <row r="10" spans="1:10" s="96" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A10" s="156" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="87"/>
+    </row>
+    <row r="10" spans="1:10" s="88" customFormat="1" ht="85.5" customHeight="1">
+      <c r="A10" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="159" t="s">
+      <c r="C10" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="160" t="s">
+      <c r="D10" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="157" t="s">
+      <c r="E10" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="158" t="s">
+      <c r="F10" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="157" t="s">
+      <c r="G10" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="166"/>
-      <c r="I10" s="95"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="87"/>
     </row>
     <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="176" t="s">
+      <c r="C11" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="159" t="s">
+      <c r="D11" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="157" t="s">
+      <c r="E11" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="174" t="s">
+      <c r="F11" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="157" t="s">
+      <c r="G11" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="167"/>
-      <c r="I11" s="95"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="87"/>
     </row>
     <row r="12" spans="1:10" ht="56">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="177" t="s">
+      <c r="C12" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="162" t="s">
+      <c r="D12" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="157" t="s">
+      <c r="E12" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="174" t="s">
+      <c r="F12" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="157" t="s">
+      <c r="G12" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="167"/>
-      <c r="I12" s="95"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="87"/>
     </row>
     <row r="13" spans="1:10" ht="45">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="177" t="s">
+      <c r="C13" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="159" t="s">
+      <c r="D13" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="157" t="s">
+      <c r="E13" s="129" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="174" t="s">
+      <c r="F13" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="157" t="s">
+      <c r="G13" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="167"/>
-      <c r="I13" s="95"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="87"/>
     </row>
     <row r="14" spans="1:10" ht="42">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="177" t="s">
+      <c r="C14" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="177" t="s">
+      <c r="D14" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="157" t="s">
+      <c r="E14" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="174" t="s">
+      <c r="F14" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="157" t="s">
+      <c r="G14" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="169"/>
-      <c r="I14" s="100"/>
-    </row>
-    <row r="15" spans="1:10" s="164" customFormat="1" ht="47" customHeight="1">
-      <c r="A15" s="172" t="s">
+      <c r="H14" s="141"/>
+    </row>
+    <row r="15" spans="1:10" s="136" customFormat="1" ht="47" customHeight="1">
+      <c r="A15" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="159" t="s">
+      <c r="D15" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="157" t="s">
+      <c r="E15" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="172" t="s">
+      <c r="F15" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="157" t="s">
+      <c r="G15" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="171"/>
-      <c r="I15" s="163"/>
-    </row>
-    <row r="16" spans="1:10" s="164" customFormat="1" ht="47" customHeight="1">
-      <c r="A16" s="173" t="s">
+      <c r="H15" s="143"/>
+      <c r="I15" s="135"/>
+    </row>
+    <row r="16" spans="1:10" s="136" customFormat="1" ht="47" customHeight="1">
+      <c r="A16" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="157" t="s">
+      <c r="E16" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="174" t="s">
+      <c r="F16" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="157" t="s">
+      <c r="G16" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="167"/>
-      <c r="I16" s="163"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="135"/>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="157" t="s">
+      <c r="E17" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="174" t="s">
+      <c r="F17" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="157" t="s">
+      <c r="G17" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="167"/>
-      <c r="I17" s="95"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="87"/>
     </row>
     <row r="18" spans="1:9" ht="56">
-      <c r="A18" s="173" t="s">
+      <c r="A18" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="176" t="s">
+      <c r="D18" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="157" t="s">
+      <c r="E18" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="180" t="s">
+      <c r="F18" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="157" t="s">
+      <c r="G18" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="169"/>
+      <c r="H18" s="141"/>
     </row>
     <row r="19" spans="1:9" ht="56">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="179" t="s">
+      <c r="D19" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="157" t="s">
+      <c r="E19" s="129" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="180" t="s">
+      <c r="F19" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="157" t="s">
+      <c r="G19" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="169"/>
+      <c r="H19" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3220,7 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC9DE56-4F34-3847-9DE3-3FE1ACFF2F2A}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3236,152 +3202,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="152" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="181" t="s">
+      <c r="E1" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="152" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="181" t="s">
+      <c r="G1" s="152" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="182" t="s">
+      <c r="D2" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="182" t="s">
+      <c r="E2" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="182" t="s">
+      <c r="F2" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="182" t="s">
+      <c r="G2" s="153" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="182" t="s">
+      <c r="C3" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="182" t="s">
+      <c r="D3" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="182" t="s">
+      <c r="E3" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="182" t="s">
+      <c r="F3" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="182" t="s">
+      <c r="G3" s="153" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="153" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="182" t="s">
+      <c r="D4" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="182" t="s">
+      <c r="E4" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="182" t="s">
+      <c r="F4" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="182" t="s">
+      <c r="G4" s="153" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="153" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="182" t="s">
+      <c r="C5" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="182" t="s">
+      <c r="D5" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="182" t="s">
+      <c r="E5" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="182" t="s">
+      <c r="F5" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="182" t="s">
+      <c r="G5" s="153" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="153" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="153" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="153" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="153" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="153" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="153" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="153" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3408,293 +3374,292 @@
     <col min="4" max="4" width="30.1640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="63"/>
+    <col min="7" max="7" width="9" style="8"/>
     <col min="8" max="8" width="17.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="64" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="57" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="70" customFormat="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="71" t="s">
+    <row r="1" spans="1:11" s="63" customFormat="1">
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:11" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:11" s="63" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70" t="s">
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:11" s="63" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="1:11" s="70" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" s="63" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="150"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="70" t="s">
+      <c r="F5" s="165"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="101">
+    <row r="6" spans="1:11" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="91">
         <f>COUNTIF(F10:F998,"Pass")</f>
         <v>5</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="73">
         <f>COUNTIF(F10:F998,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="73">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="74">
         <f>COUNTIF(F$10:F$998,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="147">
+      <c r="E6" s="162">
         <f>COUNTA(A10:A998)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="147"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="70" t="s">
+      <c r="F6" s="162"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:11" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="84" t="s">
+    <row r="7" spans="1:11" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:11" s="63" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="86"/>
-    </row>
-    <row r="9" spans="1:11" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87" t="s">
+      <c r="I8" s="78"/>
+    </row>
+    <row r="9" spans="1:11" s="63" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="79"/>
+      <c r="B9" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:11" s="96" customFormat="1" ht="121" customHeight="1">
-      <c r="A10" s="91" t="str">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
+    </row>
+    <row r="10" spans="1:11" s="88" customFormat="1" ht="121" customHeight="1">
+      <c r="A10" s="83" t="str">
         <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Module2-]</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="91" t="s">
+      <c r="F10" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="95"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="87"/>
     </row>
     <row r="11" spans="1:11" ht="14">
-      <c r="A11" s="91" t="str">
+      <c r="A11" s="83" t="str">
         <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Module2-1]</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="91" t="s">
+      <c r="C11" s="83"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="95"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="87"/>
     </row>
     <row r="12" spans="1:11" ht="14">
-      <c r="A12" s="91" t="str">
+      <c r="A12" s="83" t="str">
         <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Module2-2]</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="91" t="s">
+      <c r="C12" s="83"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="95"/>
-    </row>
-    <row r="13" spans="1:11" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87" t="s">
+      <c r="G12" s="83"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="87"/>
+    </row>
+    <row r="13" spans="1:11" s="63" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="79"/>
+      <c r="B13" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:11" ht="14">
-      <c r="A14" s="91" t="str">
+      <c r="A14" s="83" t="str">
         <f>IF(OR(B14&lt;&gt;"",D14&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[Module2-3]</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91" t="s">
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="95"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="87"/>
     </row>
     <row r="15" spans="1:11" ht="14">
-      <c r="A15" s="91" t="str">
+      <c r="A15" s="83" t="str">
         <f>IF(OR(B15&lt;&gt;"",D15&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[Module2-4]</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="99" t="s">
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="F16" s="103"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
+      <c r="F16" s="93"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="6:9">
-      <c r="F17" s="104"/>
-      <c r="I17" s="95"/>
+      <c r="F17" s="94"/>
+      <c r="I17" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3738,317 +3703,316 @@
     <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="15" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="63" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.83203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="64" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="57" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="70" customFormat="1" ht="14" thickBot="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="71" t="s">
+    <row r="1" spans="1:10" s="63" customFormat="1" ht="14" thickBot="1">
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:10" s="63" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70" t="s">
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="66"/>
+    </row>
+    <row r="5" spans="1:10" s="63" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="150"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="70" t="s">
+      <c r="F5" s="165"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="80">
+    <row r="6" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="72">
         <f>COUNTIF(F9:F998,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="73">
         <f>COUNTIF(F9:F998,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="73">
         <f>E6-D6-B6-A6</f>
         <v>7</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="74">
         <f>COUNTIF(F$9:F$998,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="147">
+      <c r="E6" s="162">
         <f>COUNTA(A9:A998)</f>
         <v>7</v>
       </c>
-      <c r="F6" s="147"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="70" t="s">
+      <c r="F6" s="162"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="84" t="s">
+    <row r="7" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:10" s="63" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="86"/>
-    </row>
-    <row r="9" spans="1:10" s="96" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A9" s="136" t="s">
+      <c r="I8" s="78"/>
+    </row>
+    <row r="9" spans="1:10" s="88" customFormat="1" ht="85.5" customHeight="1">
+      <c r="A9" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="136"/>
-      <c r="G9" s="137" t="s">
+      <c r="F9" s="123"/>
+      <c r="G9" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="138" t="s">
+      <c r="H9" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="95"/>
-    </row>
-    <row r="10" spans="1:10" s="96" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A10" s="136" t="s">
+      <c r="I9" s="87"/>
+    </row>
+    <row r="10" spans="1:10" s="88" customFormat="1" ht="85.5" customHeight="1">
+      <c r="A10" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="137" t="s">
+      <c r="F10" s="123"/>
+      <c r="G10" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="138" t="s">
+      <c r="H10" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="95"/>
+      <c r="I10" s="87"/>
     </row>
     <row r="11" spans="1:10" ht="14">
-      <c r="A11" s="91" t="str">
+      <c r="A11" s="83" t="str">
         <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Module1 -1]</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
     </row>
     <row r="12" spans="1:10" ht="14">
-      <c r="A12" s="91" t="str">
+      <c r="A12" s="83" t="str">
         <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Module1 -2]</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="95"/>
-    </row>
-    <row r="13" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="87" t="s">
+      <c r="C12" s="83"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
+    </row>
+    <row r="13" spans="1:10" s="63" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="80"/>
+      <c r="B13" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="14">
-      <c r="A14" s="91" t="str">
+      <c r="A14" s="83" t="str">
         <f>IF(OR(B14&lt;&gt;"",D14&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[Module1 -3]</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="87"/>
     </row>
     <row r="15" spans="1:10" ht="14">
-      <c r="A15" s="91" t="str">
+      <c r="A15" s="83" t="str">
         <f>IF(OR(B15&lt;&gt;"",D15&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[Module1 -4]</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100"/>
-    </row>
-    <row r="16" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87" t="s">
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+    </row>
+    <row r="16" spans="1:10" s="63" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="79"/>
+      <c r="B16" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:9" ht="14">
-      <c r="A17" s="91" t="str">
+      <c r="A17" s="83" t="str">
         <f>IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
         <v>[Module1 -5]</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="95"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4075,10 +4039,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64336199-8AF6-B940-8B43-002AEC695EDA}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B10" sqref="B10:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -4092,285 +4056,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:8" ht="12" customHeight="1">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="151" t="s">
+      <c r="D3" s="161"/>
+      <c r="E3" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="151" t="s">
+      <c r="D4" s="161"/>
+      <c r="E4" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="109"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="146" t="str">
+      <c r="C5" s="161" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="151" t="s">
+      <c r="D5" s="161"/>
+      <c r="E5" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="111" t="s">
+      <c r="F5" s="166"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="101" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A6" s="105"/>
-      <c r="B6" s="110" t="s">
+      <c r="A6" s="95"/>
+      <c r="B6" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="107"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="107"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="114"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="14">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="120" t="s">
+      <c r="H10" s="108" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="121"/>
-      <c r="B11" s="122">
+      <c r="A11" s="103"/>
+      <c r="B11" s="109">
         <v>1</v>
       </c>
-      <c r="C11" s="123" t="str">
+      <c r="C11" s="110" t="str">
         <f>Module1!B2</f>
         <v xml:space="preserve">Module1 </v>
       </c>
-      <c r="D11" s="124">
+      <c r="D11" s="111">
         <f>Module1!A6</f>
         <v>10</v>
       </c>
-      <c r="E11" s="124">
+      <c r="E11" s="111">
         <f>Module1!B6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="124">
+      <c r="F11" s="111">
         <f>Module1!C6</f>
         <v>0</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="112">
         <f>Module1!D6</f>
         <v>1</v>
       </c>
-      <c r="H11" s="126">
+      <c r="H11" s="113">
         <f>Module1!E6</f>
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="121"/>
-      <c r="B12" s="122">
+      <c r="A12" s="103"/>
+      <c r="B12" s="109">
         <v>2</v>
       </c>
-      <c r="C12" s="123" t="str">
+      <c r="C12" s="110" t="str">
         <f>Module2!B2</f>
         <v>Module2</v>
       </c>
-      <c r="D12" s="124">
+      <c r="D12" s="111">
         <f>Module2!A6</f>
         <v>5</v>
       </c>
-      <c r="E12" s="124">
+      <c r="E12" s="111">
         <f>Module2!B6</f>
         <v>0</v>
       </c>
-      <c r="F12" s="124">
+      <c r="F12" s="111">
         <f>Module2!C6</f>
         <v>0</v>
       </c>
-      <c r="G12" s="125">
+      <c r="G12" s="112">
         <f>Module2!D6</f>
         <v>0</v>
       </c>
-      <c r="H12" s="126">
+      <c r="H12" s="113">
         <f>Module2!E6</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="121"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="113"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="121"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="128" t="s">
+      <c r="A14" s="103"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="129">
+      <c r="D14" s="116">
         <f>SUM(D9:D13)</f>
         <v>15</v>
       </c>
-      <c r="E14" s="129">
+      <c r="E14" s="116">
         <f>SUM(E9:E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="129">
+      <c r="F14" s="116">
         <f>SUM(F9:F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="129">
+      <c r="G14" s="116">
         <f>SUM(G9:G13)</f>
         <v>1</v>
       </c>
-      <c r="H14" s="130">
+      <c r="H14" s="117">
         <f>SUM(H9:H13)</f>
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="114"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
+      <c r="B15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="114"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="135">
+      <c r="E16" s="122">
         <f>(D14+E14)*100/(H14-G14)</f>
         <v>100</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="83"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="114"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="134" t="s">
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="135">
+      <c r="E17" s="122">
         <f>D14*100/(H14-G14)</f>
         <v>100</v>
       </c>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="114"/>
-      <c r="H17" s="83"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
+      <c r="H17" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4393,15 +4333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b08c537a49adf1f0264621696145d4e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79edc66073723f43766a972d30b274e4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4775,15 +4706,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCAE63D-5380-40ED-A43E-1567E1C20371}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4800,4 +4732,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/project/templates/Functional test_case.xlsx
+++ b/project/templates/Functional test_case.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" tabRatio="821" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="8280" tabRatio="821" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Test case List" sheetId="2" r:id="rId2"/>
     <sheet name="Module1" sheetId="3" r:id="rId3"/>
-    <sheet name="TestDataModule1" sheetId="8" r:id="rId4"/>
-    <sheet name="Module2" sheetId="4" r:id="rId5"/>
-    <sheet name="Module3" sheetId="7" r:id="rId6"/>
-    <sheet name="Test Report" sheetId="5" r:id="rId7"/>
+    <sheet name="Module2" sheetId="4" r:id="rId4"/>
+    <sheet name="Module3" sheetId="7" r:id="rId5"/>
+    <sheet name="TestDataModule1" sheetId="8" r:id="rId6"/>
+    <sheet name="TestDataModule2" sheetId="9" r:id="rId7"/>
+    <sheet name="TestDataModule3" sheetId="10" r:id="rId8"/>
+    <sheet name="Test Report" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Module1!$A$8:$I$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Module2!$A$8:$I$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Module3!$A$8:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module2!$A$8:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Module3!$A$8:$H$16</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -169,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="400">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -254,19 +256,19 @@
     <t>Pre-Condition</t>
   </si>
   <si>
-    <t>Login</t>
+    <t>FORM FUNCTIONALITY</t>
   </si>
   <si>
     <t>Module1</t>
   </si>
   <si>
-    <t>ShoppingCart</t>
+    <t>LINK TESTING</t>
   </si>
   <si>
     <t>Module2</t>
   </si>
   <si>
-    <t>Order payment</t>
+    <t>BUSINESS WORKFLOW</t>
   </si>
   <si>
     <t>Module3</t>
@@ -560,6 +562,468 @@
     <t>4. Confirm deletion</t>
   </si>
   <si>
+    <t>Inter-test case Dependence</t>
+  </si>
+  <si>
+    <t>Test date</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>TC_LINK_01</t>
+  </si>
+  <si>
+    <t>Verify all internal links navigate to correct pages</t>
+  </si>
+  <si>
+    <t>User is logged in and system is accessible</t>
+  </si>
+  <si>
+    <t>Each internal link redirects to the correct and expected page without error</t>
+  </si>
+  <si>
+    <t>Internal link navigation</t>
+  </si>
+  <si>
+    <t>2. Navigate to the Home page</t>
+  </si>
+  <si>
+    <t>3. Identify all internal links (menu links, buttons, text links)</t>
+  </si>
+  <si>
+    <t>4. Click each internal link one by one</t>
+  </si>
+  <si>
+    <t>5. Observe the destination page after each click</t>
+  </si>
+  <si>
+    <t>TC_LINK_02</t>
+  </si>
+  <si>
+    <t>Verify internal links work from different pages</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>1. Navigate to multiple pages (Home, Menu, Cart, Profile)</t>
+  </si>
+  <si>
+    <t>Internal links work consistently across different pages</t>
+  </si>
+  <si>
+    <t>Internal link consistency</t>
+  </si>
+  <si>
+    <t>2. Click internal links available on each page</t>
+  </si>
+  <si>
+    <t>3. Observe navigation behavior</t>
+  </si>
+  <si>
+    <t>TC_LINK_03</t>
+  </si>
+  <si>
+    <t>Verify external links (Stripe API) are accessible</t>
+  </si>
+  <si>
+    <t>System is connected to internet</t>
+  </si>
+  <si>
+    <t>External link to Stripe is accessible and loads correctly</t>
+  </si>
+  <si>
+    <t>Stripe_URL</t>
+  </si>
+  <si>
+    <t>External link integration</t>
+  </si>
+  <si>
+    <t>2. Navigate to the payment page</t>
+  </si>
+  <si>
+    <t>3. Trigger an action that redirects or connects to Stripe (e.g. Pay Now)</t>
+  </si>
+  <si>
+    <t>4. Observe the external link behavior</t>
+  </si>
+  <si>
+    <t>TC_LINK_04</t>
+  </si>
+  <si>
+    <t>Verify external links open correct external resources</t>
+  </si>
+  <si>
+    <t>System is accessible</t>
+  </si>
+  <si>
+    <t>1. Navigate to pages containing external links (e.g. Stripe, policy pages)</t>
+  </si>
+  <si>
+    <t>External links redirect to correct external systems or resources</t>
+  </si>
+  <si>
+    <t>External_URLs</t>
+  </si>
+  <si>
+    <t>External link validation</t>
+  </si>
+  <si>
+    <t>2. Click each external link</t>
+  </si>
+  <si>
+    <t>3. Verify destination URL and page content</t>
+  </si>
+  <si>
+    <t>TC_LINK_05</t>
+  </si>
+  <si>
+    <t>Verify system does not contain broken internal links</t>
+  </si>
+  <si>
+    <t>1. Navigate through all main pages of the system</t>
+  </si>
+  <si>
+    <t>No broken links (404, 500 errors) are found</t>
+  </si>
+  <si>
+    <t>Broken link check</t>
+  </si>
+  <si>
+    <t>2. Click all visible internal links</t>
+  </si>
+  <si>
+    <t>3. Monitor page responses and browser status</t>
+  </si>
+  <si>
+    <t>TC_LINK_06</t>
+  </si>
+  <si>
+    <t>Verify system handles unreachable external links gracefully</t>
+  </si>
+  <si>
+    <t>External service is unavailable</t>
+  </si>
+  <si>
+    <t>1. Simulate external service unavailability (e.g. Stripe down)</t>
+  </si>
+  <si>
+    <t>System displays appropriate error message or fallback behavior</t>
+  </si>
+  <si>
+    <t>Stripe_Down</t>
+  </si>
+  <si>
+    <t>External link failure handling</t>
+  </si>
+  <si>
+    <t>2. Attempt to access the external link</t>
+  </si>
+  <si>
+    <t>3. Observe system behavior</t>
+  </si>
+  <si>
+    <t>TC_LINK_07</t>
+  </si>
+  <si>
+    <t>Verify access to non-existing pages is prevented</t>
+  </si>
+  <si>
+    <t>1. Manually enter an invalid or non-existing URL</t>
+  </si>
+  <si>
+    <t>System prevents access and displays error or redirect page</t>
+  </si>
+  <si>
+    <t>Invalid_URL</t>
+  </si>
+  <si>
+    <t>Invalid page access</t>
+  </si>
+  <si>
+    <t>2. Press Enter to access the page</t>
+  </si>
+  <si>
+    <t>TC_LINK_08</t>
+  </si>
+  <si>
+    <t>Verify system redirects user when accessing invalid pages</t>
+  </si>
+  <si>
+    <t>1. Enter a non-existing page URL</t>
+  </si>
+  <si>
+    <t>User is redirected to a valid page (e.g. error page or home page)</t>
+  </si>
+  <si>
+    <t>Page access control</t>
+  </si>
+  <si>
+    <t>2. Observe system response</t>
+  </si>
+  <si>
+    <t>TC_LINK_09</t>
+  </si>
+  <si>
+    <t>TC_BW_01</t>
+  </si>
+  <si>
+    <t>Verify end-to-end order workflow</t>
+  </si>
+  <si>
+    <t>User has a valid account</t>
+  </si>
+  <si>
+    <t>Order is completed successfully and confirmation page is displayed</t>
+  </si>
+  <si>
+    <t>BW_Data_01</t>
+  </si>
+  <si>
+    <t>End-to-End workflow</t>
+  </si>
+  <si>
+    <t>2. Login with valid credentials</t>
+  </si>
+  <si>
+    <t>3. Browse food menu</t>
+  </si>
+  <si>
+    <t>4. Add food items to shopping cart</t>
+  </si>
+  <si>
+    <t>5. Proceed to checkout</t>
+  </si>
+  <si>
+    <t>6. Complete payment</t>
+  </si>
+  <si>
+    <t>TC_BW_02</t>
+  </si>
+  <si>
+    <t>Verify workflow from login to successful payment</t>
+  </si>
+  <si>
+    <t>User account exists</t>
+  </si>
+  <si>
+    <t>1. Login to system</t>
+  </si>
+  <si>
+    <t>Payment is successful and order status is updated</t>
+  </si>
+  <si>
+    <t>BW_Data_02</t>
+  </si>
+  <si>
+    <t>Full business flow</t>
+  </si>
+  <si>
+    <t>2. Navigate through menu pages</t>
+  </si>
+  <si>
+    <t>3. Add items to cart</t>
+  </si>
+  <si>
+    <t>4. Checkout and pay using valid payment method</t>
+  </si>
+  <si>
+    <t>TC_BW_03</t>
+  </si>
+  <si>
+    <t>Verify data consistency across pages</t>
+  </si>
+  <si>
+    <t>1. Add multiple items to cart</t>
+  </si>
+  <si>
+    <t>Product list, quantity, and total amount remain consistent</t>
+  </si>
+  <si>
+    <t>BW_Data_03</t>
+  </si>
+  <si>
+    <t>Data consistency</t>
+  </si>
+  <si>
+    <t>2. Navigate between Menu, Cart, and Checkout pages</t>
+  </si>
+  <si>
+    <t>3. Observe item list, quantity, and total price</t>
+  </si>
+  <si>
+    <t>TC_BW_04</t>
+  </si>
+  <si>
+    <t>Verify data consistency after page refresh</t>
+  </si>
+  <si>
+    <t>Items exist in cart</t>
+  </si>
+  <si>
+    <t>1. Add items to cart</t>
+  </si>
+  <si>
+    <t>Cart data is retained correctly after refresh</t>
+  </si>
+  <si>
+    <t>BW_Data_04</t>
+  </si>
+  <si>
+    <t>State persistence</t>
+  </si>
+  <si>
+    <t>2. Refresh the browser page</t>
+  </si>
+  <si>
+    <t>3. Navigate to cart again</t>
+  </si>
+  <si>
+    <t>TC_BW_05</t>
+  </si>
+  <si>
+    <t>Verify system behavior when payment is cancelled</t>
+  </si>
+  <si>
+    <t>User at payment step</t>
+  </si>
+  <si>
+    <t>1. Proceed to checkout</t>
+  </si>
+  <si>
+    <t>System handles cancellation gracefully without data loss</t>
+  </si>
+  <si>
+    <t>BW_Data_05</t>
+  </si>
+  <si>
+    <t>Interrupted workflow</t>
+  </si>
+  <si>
+    <t>2. Initiate payment</t>
+  </si>
+  <si>
+    <t>3. Cancel payment process</t>
+  </si>
+  <si>
+    <t>4. Return to previous page</t>
+  </si>
+  <si>
+    <t>TC_BW_06</t>
+  </si>
+  <si>
+    <t>Verify workflow when user navigates back during checkout</t>
+  </si>
+  <si>
+    <t>User is at checkout page</t>
+  </si>
+  <si>
+    <t>Cart data remains unchanged and no error occurs</t>
+  </si>
+  <si>
+    <t>BW_Data_06</t>
+  </si>
+  <si>
+    <t>Navigation handling</t>
+  </si>
+  <si>
+    <t>2. Proceed to checkout</t>
+  </si>
+  <si>
+    <t>3. Click browser Back button</t>
+  </si>
+  <si>
+    <t>4. Return to cart</t>
+  </si>
+  <si>
+    <t>TC_BW_07</t>
+  </si>
+  <si>
+    <t>Verify system prevents duplicate orders on repeated payment</t>
+  </si>
+  <si>
+    <t>User at payment page</t>
+  </si>
+  <si>
+    <t>Only one order is created and payment is processed once</t>
+  </si>
+  <si>
+    <t>BW_Data_07</t>
+  </si>
+  <si>
+    <t>Duplicate prevention</t>
+  </si>
+  <si>
+    <t>2. Click Pay button multiple times rapidly</t>
+  </si>
+  <si>
+    <t>TC_BW_08</t>
+  </si>
+  <si>
+    <t>Verify redirection after successful login</t>
+  </si>
+  <si>
+    <t>User not logged in</t>
+  </si>
+  <si>
+    <t>1. Access login page</t>
+  </si>
+  <si>
+    <t>User is redirected to Home page</t>
+  </si>
+  <si>
+    <t>BW_Data_08</t>
+  </si>
+  <si>
+    <t>Redirect validation</t>
+  </si>
+  <si>
+    <t>TC_BW_09</t>
+  </si>
+  <si>
+    <t>Verify redirection after successful payment</t>
+  </si>
+  <si>
+    <t>Payment completed</t>
+  </si>
+  <si>
+    <t>1. Complete checkout and payment</t>
+  </si>
+  <si>
+    <t>User is redirected to order confirmation page</t>
+  </si>
+  <si>
+    <t>BW_Data_09</t>
+  </si>
+  <si>
+    <t>Post-payment redirect</t>
+  </si>
+  <si>
+    <t>TC_BW_10</t>
+  </si>
+  <si>
+    <t>Verify redirection when accessing protected pages</t>
+  </si>
+  <si>
+    <t>User logged out</t>
+  </si>
+  <si>
+    <t>1. Logout from system</t>
+  </si>
+  <si>
+    <t>User is redirected to login page</t>
+  </si>
+  <si>
+    <t>BW_Data_10</t>
+  </si>
+  <si>
+    <t>Access control</t>
+  </si>
+  <si>
+    <t>2. Attempt to access protected page via URL</t>
+  </si>
+  <si>
     <t>Test Data ID</t>
   </si>
   <si>
@@ -578,547 +1042,310 @@
     <t>Account Status</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>TestData01</t>
+    <t>Dieu Linh</t>
+  </si>
+  <si>
+    <t>P@ssw0rd123</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>user3@gmail.com</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Valid data for successful form submission</t>
+  </si>
+  <si>
+    <t>(empty)</t>
+  </si>
+  <si>
+    <t>Missing required username field</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>invalid-email-format</t>
+  </si>
+  <si>
+    <t>Invalid data format (password, email)</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>Trigger validation error messages</t>
+  </si>
+  <si>
+    <t>P@ssw0rd456</t>
+  </si>
+  <si>
+    <t>Create new data using form</t>
+  </si>
+  <si>
+    <t>P@ssw0rd789</t>
+  </si>
+  <si>
+    <t>Update existing data</t>
+  </si>
+  <si>
+    <t>P@ssw0rd999</t>
+  </si>
+  <si>
+    <t>Delete existing data</t>
+  </si>
+  <si>
+    <t>Used for UI-only or view-only test cases</t>
+  </si>
+  <si>
+    <t>URL / Link Type</t>
+  </si>
+  <si>
+    <t>Page Name / Source</t>
+  </si>
+  <si>
+    <t>User State</t>
+  </si>
+  <si>
+    <t>Network / Service Status</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>LinkData_01</t>
+  </si>
+  <si>
+    <t>Internal link</t>
+  </si>
+  <si>
+    <t>Home → Menu</t>
+  </si>
+  <si>
+    <t>Logged in</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Navigate to Menu page successfully</t>
+  </si>
+  <si>
+    <t>Internal navigation</t>
+  </si>
+  <si>
+    <t>LinkData_02</t>
+  </si>
+  <si>
+    <t>Menu → Cart</t>
+  </si>
+  <si>
+    <t>Navigate to Cart page successfully</t>
+  </si>
+  <si>
+    <t>LinkData_03</t>
+  </si>
+  <si>
+    <t>Cart → Profile</t>
+  </si>
+  <si>
+    <t>Navigate to Profile page successfully</t>
+  </si>
+  <si>
+    <t>LinkData_04</t>
+  </si>
+  <si>
+    <t>External link (Stripe)</t>
+  </si>
+  <si>
+    <t>Checkout → Pay Now</t>
+  </si>
+  <si>
+    <t>Internet available</t>
+  </si>
+  <si>
+    <t>Redirect to Stripe payment page</t>
+  </si>
+  <si>
+    <t>External integration</t>
+  </si>
+  <si>
+    <t>LinkData_05</t>
+  </si>
+  <si>
+    <t>External link</t>
+  </si>
+  <si>
+    <t>Footer → Policy page</t>
+  </si>
+  <si>
+    <t>Open correct external policy page</t>
+  </si>
+  <si>
+    <t>External resource</t>
+  </si>
+  <si>
+    <t>LinkData_06</t>
+  </si>
+  <si>
+    <t>Multiple pages</t>
+  </si>
+  <si>
+    <t>No broken links (no 404 / 500 error)</t>
+  </si>
+  <si>
+    <t>LinkData_07</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Stripe service down</t>
+  </si>
+  <si>
+    <t>Show error message or fallback behavior</t>
+  </si>
+  <si>
+    <t>External failure</t>
+  </si>
+  <si>
+    <t>LinkData_08</t>
+  </si>
+  <si>
+    <t>Invalid URL</t>
+  </si>
+  <si>
+    <t>Manually entered URL</t>
+  </si>
+  <si>
+    <t>Access is blocked or error page is shown</t>
+  </si>
+  <si>
+    <t>Invalid page</t>
+  </si>
+  <si>
+    <t>LinkData_09</t>
+  </si>
+  <si>
+    <t>Redirect to error page or home page</t>
+  </si>
+  <si>
+    <t>Redirect handing</t>
+  </si>
+  <si>
+    <t>User Account</t>
+  </si>
+  <si>
+    <t>Items in Cart</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>Scenario Description</t>
   </si>
   <si>
     <t>customer01</t>
   </si>
   <si>
-    <t>cust@123</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>customer01@mail.com</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Valid customer account</t>
-  </si>
-  <si>
-    <t>TestData02</t>
-  </si>
-  <si>
-    <t>admin01</t>
-  </si>
-  <si>
-    <t>admin@123</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin01@mail.com</t>
-  </si>
-  <si>
-    <t>Valid admin account</t>
-  </si>
-  <si>
-    <t>TestData03</t>
-  </si>
-  <si>
-    <t>customer02</t>
-  </si>
-  <si>
-    <t>wrongpass</t>
-  </si>
-  <si>
-    <t>customer02@mail.com</t>
-  </si>
-  <si>
-    <t>Invalid password</t>
-  </si>
-  <si>
-    <t>TestData04</t>
-  </si>
-  <si>
-    <t>invalidUser</t>
-  </si>
-  <si>
-    <t>Invalid credentials</t>
-  </si>
-  <si>
-    <t>TestData05</t>
-  </si>
-  <si>
-    <t>TestData06</t>
-  </si>
-  <si>
-    <t>TestData07</t>
-  </si>
-  <si>
-    <t>TestData08</t>
-  </si>
-  <si>
-    <t>TestData09</t>
-  </si>
-  <si>
-    <t>TestData10</t>
-  </si>
-  <si>
-    <t>TestData11</t>
-  </si>
-  <si>
-    <t>Inter-test case Dependence</t>
-  </si>
-  <si>
-    <t>Test date</t>
-  </si>
-  <si>
-    <t>TC_LINK_01</t>
-  </si>
-  <si>
-    <t>Verify all internal links navigate to correct pages</t>
-  </si>
-  <si>
-    <t>User is logged in and system is accessible</t>
-  </si>
-  <si>
-    <t>Each internal link redirects to the correct and expected page without error</t>
-  </si>
-  <si>
-    <t>Internal link navigation</t>
-  </si>
-  <si>
-    <t>2. Navigate to the Home page</t>
-  </si>
-  <si>
-    <t>3. Identify all internal links (menu links, buttons, text links)</t>
-  </si>
-  <si>
-    <t>4. Click each internal link one by one</t>
-  </si>
-  <si>
-    <t>5. Observe the destination page after each click</t>
-  </si>
-  <si>
-    <t>TC_LINK_02</t>
-  </si>
-  <si>
-    <t>Verify internal links work from different pages</t>
-  </si>
-  <si>
-    <t>User is logged in</t>
-  </si>
-  <si>
-    <t>1. Navigate to multiple pages (Home, Menu, Cart, Profile)</t>
-  </si>
-  <si>
-    <t>Internal links work consistently across different pages</t>
-  </si>
-  <si>
-    <t>Internal link consistency</t>
-  </si>
-  <si>
-    <t>2. Click internal links available on each page</t>
-  </si>
-  <si>
-    <t>3. Observe navigation behavior</t>
-  </si>
-  <si>
-    <t>TC_LINK_03</t>
-  </si>
-  <si>
-    <t>Verify external links (Stripe API) are accessible</t>
-  </si>
-  <si>
-    <t>System is connected to internet</t>
-  </si>
-  <si>
-    <t>External link to Stripe is accessible and loads correctly</t>
-  </si>
-  <si>
-    <t>Stripe_URL</t>
-  </si>
-  <si>
-    <t>External link integration</t>
-  </si>
-  <si>
-    <t>2. Navigate to the payment page</t>
-  </si>
-  <si>
-    <t>3. Trigger an action that redirects or connects to Stripe (e.g. Pay Now)</t>
-  </si>
-  <si>
-    <t>4. Observe the external link behavior</t>
-  </si>
-  <si>
-    <t>TC_LINK_04</t>
-  </si>
-  <si>
-    <t>Verify external links open correct external resources</t>
-  </si>
-  <si>
-    <t>System is accessible</t>
-  </si>
-  <si>
-    <t>1. Navigate to pages containing external links (e.g. Stripe, policy pages)</t>
-  </si>
-  <si>
-    <t>External links redirect to correct external systems or resources</t>
-  </si>
-  <si>
-    <t>External_URLs</t>
-  </si>
-  <si>
-    <t>External link validation</t>
-  </si>
-  <si>
-    <t>2. Click each external link</t>
-  </si>
-  <si>
-    <t>3. Verify destination URL and page content</t>
-  </si>
-  <si>
-    <t>TC_LINK_05</t>
-  </si>
-  <si>
-    <t>Verify system does not contain broken internal links</t>
-  </si>
-  <si>
-    <t>1. Navigate through all main pages of the system</t>
-  </si>
-  <si>
-    <t>No broken links (404, 500 errors) are found</t>
-  </si>
-  <si>
-    <t>Broken link check</t>
-  </si>
-  <si>
-    <t>2. Click all visible internal links</t>
-  </si>
-  <si>
-    <t>3. Monitor page responses and browser status</t>
-  </si>
-  <si>
-    <t>TC_LINK_06</t>
-  </si>
-  <si>
-    <t>Verify system handles unreachable external links gracefully</t>
-  </si>
-  <si>
-    <t>External service is unavailable</t>
-  </si>
-  <si>
-    <t>1. Simulate external service unavailability (e.g. Stripe down)</t>
-  </si>
-  <si>
-    <t>System displays appropriate error message or fallback behavior</t>
-  </si>
-  <si>
-    <t>Stripe_Down</t>
-  </si>
-  <si>
-    <t>External link failure handling</t>
-  </si>
-  <si>
-    <t>2. Attempt to access the external link</t>
-  </si>
-  <si>
-    <t>3. Observe system behavior</t>
-  </si>
-  <si>
-    <t>TC_LINK_07</t>
-  </si>
-  <si>
-    <t>Verify access to non-existing pages is prevented</t>
-  </si>
-  <si>
-    <t>1. Manually enter an invalid or non-existing URL</t>
-  </si>
-  <si>
-    <t>System prevents access and displays error or redirect page</t>
-  </si>
-  <si>
-    <t>Invalid_URL</t>
-  </si>
-  <si>
-    <t>Invalid page access</t>
-  </si>
-  <si>
-    <t>2. Press Enter to access the page</t>
-  </si>
-  <si>
-    <t>TC_LINK_08</t>
-  </si>
-  <si>
-    <t>Verify system redirects user when accessing invalid pages</t>
-  </si>
-  <si>
-    <t>1. Enter a non-existing page URL</t>
-  </si>
-  <si>
-    <t>User is redirected to a valid page (e.g. error page or home page)</t>
-  </si>
-  <si>
-    <t>Page access control</t>
-  </si>
-  <si>
-    <t>2. Observe system response</t>
-  </si>
-  <si>
-    <t>TC_BW_01</t>
-  </si>
-  <si>
-    <t>Verify end-to-end order workflow</t>
-  </si>
-  <si>
-    <t>User has a valid account</t>
-  </si>
-  <si>
-    <t>Order is completed successfully and confirmation page is displayed</t>
-  </si>
-  <si>
-    <t>BW_Data_01</t>
-  </si>
-  <si>
-    <t>End-to-End workflow</t>
-  </si>
-  <si>
-    <t>2. Login with valid credentials</t>
-  </si>
-  <si>
-    <t>3. Browse food menu</t>
-  </si>
-  <si>
-    <t>4. Add food items to shopping cart</t>
-  </si>
-  <si>
-    <t>5. Proceed to checkout</t>
-  </si>
-  <si>
-    <t>6. Complete payment</t>
-  </si>
-  <si>
-    <t>TC_BW_02</t>
-  </si>
-  <si>
-    <t>Verify workflow from login to successful payment</t>
-  </si>
-  <si>
-    <t>User account exists</t>
-  </si>
-  <si>
-    <t>1. Login to system</t>
-  </si>
-  <si>
-    <t>Payment is successful and order status is updated</t>
-  </si>
-  <si>
-    <t>BW_Data_02</t>
-  </si>
-  <si>
-    <t>Full business flow</t>
-  </si>
-  <si>
-    <t>2. Navigate through menu pages</t>
-  </si>
-  <si>
-    <t>3. Add items to cart</t>
-  </si>
-  <si>
-    <t>4. Checkout and pay using valid payment method</t>
-  </si>
-  <si>
-    <t>TC_BW_03</t>
-  </si>
-  <si>
-    <t>Verify data consistency across pages</t>
-  </si>
-  <si>
-    <t>1. Add multiple items to cart</t>
-  </si>
-  <si>
-    <t>Product list, quantity, and total amount remain consistent</t>
-  </si>
-  <si>
-    <t>BW_Data_03</t>
-  </si>
-  <si>
-    <t>Data consistency</t>
-  </si>
-  <si>
-    <t>2. Navigate between Menu, Cart, and Checkout pages</t>
-  </si>
-  <si>
-    <t>3. Observe item list, quantity, and total price</t>
-  </si>
-  <si>
-    <t>TC_BW_04</t>
-  </si>
-  <si>
-    <t>Verify data consistency after page refresh</t>
-  </si>
-  <si>
-    <t>Items exist in cart</t>
-  </si>
-  <si>
-    <t>1. Add items to cart</t>
-  </si>
-  <si>
-    <t>Cart data is retained correctly after refresh</t>
-  </si>
-  <si>
-    <t>BW_Data_04</t>
-  </si>
-  <si>
-    <t>State persistence</t>
-  </si>
-  <si>
-    <t>2. Refresh the browser page</t>
-  </si>
-  <si>
-    <t>3. Navigate to cart again</t>
-  </si>
-  <si>
-    <t>TC_BW_05</t>
-  </si>
-  <si>
-    <t>Verify system behavior when payment is cancelled</t>
-  </si>
-  <si>
-    <t>User at payment step</t>
-  </si>
-  <si>
-    <t>1. Proceed to checkout</t>
-  </si>
-  <si>
-    <t>System handles cancellation gracefully without data loss</t>
-  </si>
-  <si>
-    <t>BW_Data_05</t>
-  </si>
-  <si>
-    <t>Interrupted workflow</t>
-  </si>
-  <si>
-    <t>2. Initiate payment</t>
-  </si>
-  <si>
-    <t>3. Cancel payment process</t>
-  </si>
-  <si>
-    <t>4. Return to previous page</t>
-  </si>
-  <si>
-    <t>TC_BW_06</t>
-  </si>
-  <si>
-    <t>Verify workflow when user navigates back during checkout</t>
-  </si>
-  <si>
-    <t>User is at checkout page</t>
-  </si>
-  <si>
-    <t>Cart data remains unchanged and no error occurs</t>
-  </si>
-  <si>
-    <t>BW_Data_06</t>
-  </si>
-  <si>
-    <t>Navigation handling</t>
-  </si>
-  <si>
-    <t>2. Proceed to checkout</t>
-  </si>
-  <si>
-    <t>3. Click browser Back button</t>
-  </si>
-  <si>
-    <t>4. Return to cart</t>
-  </si>
-  <si>
-    <t>TC_BW_07</t>
-  </si>
-  <si>
-    <t>Verify system prevents duplicate orders on repeated payment</t>
-  </si>
-  <si>
-    <t>User at payment page</t>
-  </si>
-  <si>
-    <t>Only one order is created and payment is processed once</t>
-  </si>
-  <si>
-    <t>BW_Data_07</t>
-  </si>
-  <si>
-    <t>Duplicate prevention</t>
-  </si>
-  <si>
-    <t>2. Click Pay button multiple times rapidly</t>
-  </si>
-  <si>
-    <t>TC_BW_08</t>
-  </si>
-  <si>
-    <t>Verify redirection after successful login</t>
-  </si>
-  <si>
-    <t>User not logged in</t>
-  </si>
-  <si>
-    <t>1. Access login page</t>
-  </si>
-  <si>
-    <t>User is redirected to Home page</t>
-  </si>
-  <si>
-    <t>BW_Data_08</t>
-  </si>
-  <si>
-    <t>Redirect validation</t>
-  </si>
-  <si>
-    <t>TC_BW_09</t>
-  </si>
-  <si>
-    <t>Verify redirection after successful payment</t>
-  </si>
-  <si>
-    <t>Payment completed</t>
-  </si>
-  <si>
-    <t>1. Complete checkout and payment</t>
-  </si>
-  <si>
-    <t>User is redirected to order confirmation page</t>
-  </si>
-  <si>
-    <t>BW_Data_09</t>
-  </si>
-  <si>
-    <t>Post-payment redirect</t>
-  </si>
-  <si>
-    <t>TC_BW_10</t>
-  </si>
-  <si>
-    <t>Verify redirection when accessing protected pages</t>
-  </si>
-  <si>
-    <t>User logged out</t>
-  </si>
-  <si>
-    <t>1. Logout from system</t>
-  </si>
-  <si>
-    <t>User is redirected to login page</t>
-  </si>
-  <si>
-    <t>BW_Data_10</t>
-  </si>
-  <si>
-    <t>Access control</t>
-  </si>
-  <si>
-    <t>2. Attempt to access protected page via URL</t>
+    <t>bún bò 1, Món lẩu</t>
+  </si>
+  <si>
+    <t>1, 1</t>
+  </si>
+  <si>
+    <t>Stripe (Valid)</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>End-to-end order from login to payment</t>
+  </si>
+  <si>
+    <t>E2E success</t>
+  </si>
+  <si>
+    <t>bún bò 1</t>
+  </si>
+  <si>
+    <t>Login → browse → add to cart → pay</t>
+  </si>
+  <si>
+    <t>Full workflow</t>
+  </si>
+  <si>
+    <t>bún bò 1, Pho</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Navigate between Menu, Cart, Checkout</t>
+  </si>
+  <si>
+    <t>In cart</t>
+  </si>
+  <si>
+    <t>Refresh page after adding items</t>
+  </si>
+  <si>
+    <t>Stripe (Cancelled)</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Cancel payment during checkout</t>
+  </si>
+  <si>
+    <t>Payment interruption</t>
+  </si>
+  <si>
+    <t>Món lẩu</t>
+  </si>
+  <si>
+    <t>In checkout</t>
+  </si>
+  <si>
+    <t>Use browser Back button during checkout</t>
+  </si>
+  <si>
+    <t>Click Pay button multiple times</t>
+  </si>
+  <si>
+    <t>Not logged in</t>
+  </si>
+  <si>
+    <t>Login and redirection to Home page</t>
+  </si>
+  <si>
+    <t>Login redirect</t>
+  </si>
+  <si>
+    <t>Cơm Code</t>
+  </si>
+  <si>
+    <t>Redirect to confirmation page after payment</t>
+  </si>
+  <si>
+    <t>Logged out</t>
+  </si>
+  <si>
+    <t>Access protected page after logout</t>
+  </si>
+  <si>
+    <t>Access</t>
   </si>
   <si>
     <t>TEST REPORT</t>
@@ -1162,7 +1389,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1227,6 +1454,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Tahoma"/>
@@ -1240,11 +1507,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="10"/>
@@ -1252,14 +1514,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1440,14 +1698,14 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="8"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -1476,6 +1734,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
         <bgColor indexed="32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1612,12 +1876,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1677,7 +1935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1874,6 +2132,21 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2040,6 +2313,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2050,19 +2386,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -2258,153 +2581,153 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2470,6 +2793,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2498,18 +2824,47 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2518,39 +2873,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2558,47 +2910,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2617,13 +2966,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2639,46 +2988,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2694,10 +3054,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2737,16 +3097,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2758,16 +3118,16 @@
     <xf numFmtId="15" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2776,7 +3136,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2835,7 +3195,7 @@
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="51"/>
   </cellStyles>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{12A2B3E1-7EF5-4217-A049-9BB5DCFE0952}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{35019803-4F25-431B-B1F7-3293180707EB}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3172,184 +3532,184 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="2.16666666666667" style="112" customWidth="1"/>
-    <col min="2" max="2" width="19.6666666666667" style="113" customWidth="1"/>
-    <col min="3" max="3" width="9.16666666666667" style="112" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="112" customWidth="1"/>
-    <col min="5" max="5" width="8" style="112" customWidth="1"/>
-    <col min="6" max="6" width="31.1666666666667" style="112" customWidth="1"/>
-    <col min="7" max="7" width="31" style="112" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="112"/>
+    <col min="1" max="1" width="2.16666666666667" style="125" customWidth="1"/>
+    <col min="2" max="2" width="19.6666666666667" style="126" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="125" customWidth="1"/>
+    <col min="5" max="5" width="8" style="125" customWidth="1"/>
+    <col min="6" max="6" width="31.1666666666667" style="125" customWidth="1"/>
+    <col min="7" max="7" width="31" style="125" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="125"/>
   </cols>
   <sheetData>
-    <row r="2" s="109" customFormat="1" ht="75.75" customHeight="1" spans="1:7">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116" t="s">
+    <row r="2" s="122" customFormat="1" ht="75.75" customHeight="1" spans="1:7">
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:7">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="120"/>
+      <c r="G4" s="133"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="2:7">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="120"/>
+      <c r="G5" s="133"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:7">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="121" t="str">
+      <c r="C6" s="134" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="122"/>
+      <c r="G6" s="135"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="2:7">
       <c r="B7" s="6"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
       <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="122"/>
+      <c r="G7" s="135"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="127"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="140"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="143" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" s="110" customFormat="1" spans="2:7">
-      <c r="B11" s="131" t="s">
+    <row r="11" s="123" customFormat="1" spans="2:7">
+      <c r="B11" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="132" t="s">
+      <c r="D11" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="132" t="s">
+      <c r="E11" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="F11" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="146" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" s="111" customFormat="1" ht="39.6" spans="2:7">
-      <c r="B12" s="134" t="s">
+    <row r="12" s="124" customFormat="1" ht="39.6" spans="2:7">
+      <c r="B12" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="138" t="s">
+      <c r="C12" s="148"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="151" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" s="111" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
-      <c r="B13" s="139"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="140"/>
-    </row>
-    <row r="14" s="111" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
-      <c r="B14" s="139"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="140"/>
-    </row>
-    <row r="15" s="111" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
-      <c r="B15" s="139"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="140"/>
-    </row>
-    <row r="16" s="111" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
-      <c r="B16" s="139"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="140"/>
-    </row>
-    <row r="17" s="111" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
-      <c r="B17" s="139"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="140"/>
-    </row>
-    <row r="18" s="111" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="144"/>
+    <row r="13" s="124" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
+      <c r="B13" s="152"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="153"/>
+    </row>
+    <row r="14" s="124" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
+      <c r="B14" s="152"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="153"/>
+    </row>
+    <row r="15" s="124" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
+      <c r="B15" s="152"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="153"/>
+    </row>
+    <row r="16" s="124" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
+      <c r="B16" s="152"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="153"/>
+    </row>
+    <row r="17" s="124" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
+      <c r="B17" s="152"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="153"/>
+    </row>
+    <row r="18" s="124" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3373,38 +3733,38 @@
   <sheetPr/>
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="178" zoomScaleNormal="178" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="1.33333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8333333333333" style="82" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="83" customWidth="1"/>
-    <col min="4" max="4" width="17.1666666666667" style="83" customWidth="1"/>
-    <col min="5" max="5" width="28.1666666666667" style="83" customWidth="1"/>
-    <col min="6" max="6" width="30.6666666666667" style="83" customWidth="1"/>
+    <col min="2" max="2" width="11.8333333333333" style="90" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="91" customWidth="1"/>
+    <col min="4" max="4" width="17.1666666666667" style="91" customWidth="1"/>
+    <col min="5" max="5" width="28.1666666666667" style="91" customWidth="1"/>
+    <col min="6" max="6" width="30.6666666666667" style="91" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.6" spans="2:5">
-      <c r="B1" s="84"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="92"/>
+      <c r="D1" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="86"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="2:5">
-      <c r="B2" s="84"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="92"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="7" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
@@ -3413,10 +3773,10 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="7" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
@@ -3424,156 +3784,156 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" s="48" customFormat="1" ht="84.75" customHeight="1" spans="2:6">
-      <c r="B5" s="89" t="s">
+    <row r="5" s="60" customFormat="1" ht="84.75" customHeight="1" spans="2:6">
+      <c r="B5" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-    </row>
-    <row r="7" s="80" customFormat="1" spans="2:6">
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-    </row>
-    <row r="8" s="81" customFormat="1" ht="21" customHeight="1" spans="2:6">
-      <c r="B8" s="95" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+    </row>
+    <row r="7" s="88" customFormat="1" spans="2:6">
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+    </row>
+    <row r="8" s="89" customFormat="1" ht="21" customHeight="1" spans="2:6">
+      <c r="B8" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="106" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="99">
+      <c r="B9" s="107">
         <v>1</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="99">
+      <c r="B10" s="107">
         <v>2</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="99">
+      <c r="B11" s="113">
         <v>3</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="102"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="117"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="102"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="102"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="102"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="99"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="102"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="102"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="102"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="102"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="102"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="105"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3603,9 +3963,9 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -3617,793 +3977,792 @@
     <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.7037037037037" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.16666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.8333333333333" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.8333333333333" style="54" customWidth="1"/>
     <col min="9" max="9" width="31.8333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.16666666666667" style="43" customWidth="1"/>
+    <col min="10" max="10" width="8.16666666666667" style="55" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="1" ht="15.45" customHeight="1" spans="1:10">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="67"/>
-    </row>
-    <row r="2" s="39" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A2" s="49" t="s">
+    <row r="1" s="51" customFormat="1" ht="15.45" customHeight="1" spans="1:10">
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="78"/>
+    </row>
+    <row r="2" s="51" customFormat="1" ht="15" customHeight="1" spans="1:11">
+      <c r="A2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="39" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="39" customFormat="1" ht="26.4" customHeight="1" spans="1:11">
-      <c r="A3" s="52" t="s">
+    <row r="3" s="51" customFormat="1" ht="26.4" customHeight="1" spans="1:11">
+      <c r="A3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="39" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" s="39" customFormat="1" ht="18" customHeight="1" spans="1:11">
-      <c r="A4" s="49" t="s">
+    <row r="4" s="51" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A4" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" s="39" customFormat="1" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A5" s="54" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" s="51" customFormat="1" ht="19.5" customHeight="1" spans="1:11">
+      <c r="A5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="39" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" s="39" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A6" s="59">
+    <row r="6" s="51" customFormat="1" ht="15" customHeight="1" spans="1:11">
+      <c r="A6" s="71">
         <f>COUNTIF(G9:G997,"Pass")</f>
         <v>10</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="72">
         <f>COUNTIF(G9:G997,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60">
-        <f>F6-E6-B6-A6</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="61">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72">
+        <v>0</v>
+      </c>
+      <c r="E6" s="73">
         <f>COUNTIF(G$9:G$997,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="62">
-        <v>11</v>
-      </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="39" t="s">
+      <c r="F6" s="74">
+        <v>10</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" s="39" customFormat="1" ht="15" customHeight="1" spans="5:10">
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="30" customHeight="1" spans="1:10">
-      <c r="A8" s="78" t="s">
+    <row r="7" s="51" customFormat="1" ht="15" customHeight="1" spans="5:10">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="80"/>
+    </row>
+    <row r="8" s="51" customFormat="1" ht="30" customHeight="1" spans="1:10">
+      <c r="A8" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" s="40" customFormat="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A9" s="65" t="s">
+      <c r="J8" s="82"/>
+    </row>
+    <row r="9" s="52" customFormat="1" ht="21" customHeight="1" spans="1:10">
+      <c r="A9" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" s="40" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="65" t="s">
+      <c r="J9" s="84"/>
+    </row>
+    <row r="10" s="52" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="73"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" ht="22" customHeight="1" spans="1:10">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="65" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="73"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" ht="38" customHeight="1" spans="1:10">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="65" t="s">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="73"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" ht="37" customHeight="1" spans="1:10">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="73"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" ht="36" spans="1:10">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="65" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="74"/>
-    </row>
-    <row r="15" s="77" customFormat="1" ht="27" customHeight="1" spans="1:10">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="65" t="s">
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="85"/>
+    </row>
+    <row r="15" s="53" customFormat="1" ht="27" customHeight="1" spans="1:10">
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="79"/>
-    </row>
-    <row r="16" s="77" customFormat="1" ht="17" customHeight="1" spans="1:10">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="65" t="s">
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="87"/>
+    </row>
+    <row r="16" s="53" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="79"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="87"/>
     </row>
     <row r="17" ht="36" spans="1:10">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="65" t="s">
+      <c r="H17" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="I17" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="73"/>
+      <c r="J17" s="84"/>
     </row>
     <row r="18" ht="18" spans="1:9">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="65" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:9">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="65" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" ht="37" customHeight="1" spans="1:9">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="65" t="s">
+      <c r="I20" s="77" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:9">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="65" t="s">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="1:9">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="65" t="s">
+      <c r="A22" s="77"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
     </row>
     <row r="23" ht="36" spans="1:9">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="65" t="s">
+      <c r="H23" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="77" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:9">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="65" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
     </row>
     <row r="25" ht="18" spans="1:9">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="65" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:9">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="65" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
     </row>
     <row r="27" ht="36" spans="1:9">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="65" t="s">
+      <c r="G27" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="H27" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="77" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" ht="18" spans="1:9">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="65" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
     </row>
     <row r="29" ht="36" spans="1:9">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="65" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
     </row>
     <row r="30" ht="36" customHeight="1" spans="1:9">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="65" t="s">
+      <c r="H30" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="65" t="s">
+      <c r="I30" s="77" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" ht="36" spans="1:9">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="65" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:9">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="65" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
     </row>
     <row r="33" ht="18" spans="1:9">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="65" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" ht="18" spans="1:9">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="65" t="s">
+      <c r="F34" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="65" t="s">
+      <c r="H34" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="65" t="s">
+      <c r="I34" s="77" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="35" ht="18" spans="1:9">
-      <c r="A35" s="66"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="65" t="s">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
     </row>
     <row r="36" ht="18" spans="1:9">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="65" t="s">
+      <c r="A36" s="77"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
     </row>
     <row r="37" ht="18" spans="1:9">
-      <c r="A37" s="66"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="65" t="s">
+      <c r="A37" s="77"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
     </row>
     <row r="38" ht="18" spans="1:9">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="65" t="s">
+      <c r="F38" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="65" t="s">
+      <c r="G38" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="65" t="s">
+      <c r="H38" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="65" t="s">
+      <c r="I38" s="77" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39" ht="36" spans="1:9">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="65" t="s">
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
     </row>
     <row r="40" ht="18" spans="1:9">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="65" t="s">
+      <c r="E40" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="F40" s="65" t="s">
+      <c r="F40" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="G40" s="65" t="s">
+      <c r="G40" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="65" t="s">
+      <c r="H40" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="65" t="s">
+      <c r="I40" s="77" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" ht="18" spans="1:9">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="65" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
     </row>
     <row r="42" ht="18" spans="1:9">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="65" t="s">
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
     </row>
     <row r="43" ht="18" spans="1:9">
-      <c r="A43" s="66"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="65" t="s">
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -4510,188 +4869,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="22.8333333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="7" width="33.8333333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.4" spans="1:7">
-      <c r="A1" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" ht="21" spans="1:7">
-      <c r="A2" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" ht="21" spans="1:7">
-      <c r="A3" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" ht="21" spans="1:7">
-      <c r="A4" s="76" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" ht="21" spans="1:7">
-      <c r="A5" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" ht="21" spans="1:1">
-      <c r="A6" s="76" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" ht="21" spans="1:1">
-      <c r="A7" s="76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" ht="21" spans="1:1">
-      <c r="A8" s="76" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" ht="21" spans="1:1">
-      <c r="A9" s="76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" ht="21" spans="1:1">
-      <c r="A10" s="76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" ht="21" spans="1:1">
-      <c r="A11" s="76" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" ht="21" spans="1:1">
-      <c r="A12" s="76" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:I8"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4702,637 +4885,679 @@
     <col min="5" max="5" width="30.1666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.8333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.16666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="42"/>
+    <col min="8" max="8" width="9" style="54"/>
     <col min="9" max="9" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.16666666666667" style="43" customWidth="1"/>
+    <col min="10" max="10" width="8.16666666666667" style="55" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="1" ht="14.7" customHeight="1" spans="1:10">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="67"/>
-    </row>
-    <row r="2" s="39" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A2" s="49" t="s">
+    <row r="1" s="51" customFormat="1" ht="14.7" customHeight="1" spans="1:10">
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="78"/>
+    </row>
+    <row r="2" s="51" customFormat="1" ht="15" customHeight="1" spans="1:11">
+      <c r="A2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="39" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="39" customFormat="1" ht="25.5" customHeight="1" spans="1:11">
-      <c r="A3" s="52" t="s">
+    <row r="3" s="51" customFormat="1" ht="25.5" customHeight="1" spans="1:11">
+      <c r="A3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="39" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" s="39" customFormat="1" ht="18" customHeight="1" spans="1:11">
-      <c r="A4" s="49" t="s">
+    <row r="4" s="51" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A4" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" s="39" customFormat="1" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A5" s="54" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" s="51" customFormat="1" ht="19.5" customHeight="1" spans="1:11">
+      <c r="A5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="39" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
-      <c r="A6" s="70">
+    <row r="6" s="51" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
+      <c r="A6" s="81">
         <f>COUNTIF(G10:G998,"Pass")</f>
-        <v>7</v>
-      </c>
-      <c r="B6" s="60">
+        <v>8</v>
+      </c>
+      <c r="B6" s="72">
         <f>COUNTIF(G10:G998,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72">
         <f>F6-E6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="73">
         <f>COUNTIF(G$10:G$998,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="74">
         <f>COUNTA(A10:A998)</f>
-        <v>7</v>
-      </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" s="39" customFormat="1" ht="15" customHeight="1" spans="5:10">
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="25.5" customHeight="1" spans="1:10">
-      <c r="A8" s="63" t="s">
+    <row r="7" s="51" customFormat="1" ht="15" customHeight="1" spans="5:10">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="80"/>
+    </row>
+    <row r="8" s="51" customFormat="1" ht="25.5" customHeight="1" spans="1:10">
+      <c r="A8" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="82"/>
+    </row>
+    <row r="9" s="51" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A9" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="83"/>
+    </row>
+    <row r="10" s="52" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="84"/>
+    </row>
+    <row r="11" ht="54" spans="1:10">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="84"/>
+    </row>
+    <row r="12" ht="36" spans="1:10">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="84"/>
+    </row>
+    <row r="13" s="51" customFormat="1" ht="36" customHeight="1" spans="1:10">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="83"/>
+    </row>
+    <row r="14" ht="54" spans="1:10">
+      <c r="A14" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" s="84"/>
+    </row>
+    <row r="15" ht="36" spans="1:10">
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="85"/>
+    </row>
+    <row r="16" ht="34" customHeight="1" spans="1:12">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+    </row>
+    <row r="17" ht="18" spans="1:10">
+      <c r="A17" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="84"/>
+    </row>
+    <row r="18" ht="36" spans="1:9">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+    </row>
+    <row r="19" ht="58" customHeight="1" spans="1:9">
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+    </row>
+    <row r="20" ht="36" spans="1:9">
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+    </row>
+    <row r="21" ht="72" spans="1:9">
+      <c r="A21" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="63" t="s">
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:9">
+      <c r="A22" s="77"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" s="39" customFormat="1" ht="17" customHeight="1" spans="1:10">
-      <c r="A9" s="65" t="s">
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+    </row>
+    <row r="23" ht="40" customHeight="1" spans="1:9">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+    </row>
+    <row r="24" ht="36" customHeight="1" spans="1:9">
+      <c r="A24" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="B24" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="65" t="s">
+      <c r="C24" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="E24" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G24" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H24" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="72"/>
-    </row>
-    <row r="10" s="40" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="65" t="s">
+      <c r="I24" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="73"/>
-    </row>
-    <row r="11" ht="54" spans="1:10">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="65" t="s">
+    </row>
+    <row r="25" ht="36" spans="1:9">
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="73"/>
-    </row>
-    <row r="12" ht="36" spans="1:10">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="65" t="s">
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+    </row>
+    <row r="26" ht="54" spans="1:9">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="73"/>
-    </row>
-    <row r="13" s="39" customFormat="1" ht="36" customHeight="1" spans="1:10">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="65" t="s">
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+    </row>
+    <row r="27" ht="54" spans="1:9">
+      <c r="A27" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="72"/>
-    </row>
-    <row r="14" ht="54" spans="1:10">
-      <c r="A14" s="65" t="s">
+      <c r="B27" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="C27" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="D27" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="E27" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="F27" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="65" t="s">
+      <c r="G27" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H27" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I27" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="J14" s="73"/>
-    </row>
-    <row r="15" ht="36" spans="1:10">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="65" t="s">
+    </row>
+    <row r="28" ht="36" spans="1:9">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="74"/>
-    </row>
-    <row r="16" ht="34" customHeight="1" spans="1:12">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="65" t="s">
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+    </row>
+    <row r="29" ht="36" spans="1:9">
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-    </row>
-    <row r="17" ht="18" spans="1:10">
-      <c r="A17" s="65" t="s">
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+    </row>
+    <row r="30" ht="54" spans="1:9">
+      <c r="A30" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B30" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C30" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="65" t="s">
+      <c r="E30" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F30" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G30" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="65" t="s">
+      <c r="H30" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="I30" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="J17" s="73"/>
-    </row>
-    <row r="18" ht="36" spans="1:9">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="65" t="s">
+    </row>
+    <row r="31" ht="36" spans="1:9">
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-    </row>
-    <row r="19" ht="58" customHeight="1" spans="1:9">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="65" t="s">
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+    </row>
+    <row r="32" ht="36" spans="1:9">
+      <c r="A32" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-    </row>
-    <row r="20" ht="36" spans="1:9">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="65" t="s">
+      <c r="B32" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-    </row>
-    <row r="21" ht="72" spans="1:9">
-      <c r="A21" s="65" t="s">
+      <c r="C32" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="E32" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="F32" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="65" t="s">
+    </row>
+    <row r="33" ht="36" spans="1:9">
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+    </row>
+    <row r="34" ht="57" customHeight="1" spans="1:9">
+      <c r="A34" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" s="65" t="s">
+      <c r="B34" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="65" t="s">
+      <c r="H34" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="65" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:9">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-    </row>
-    <row r="23" ht="40" customHeight="1" spans="1:9">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-    </row>
-    <row r="24" ht="36" customHeight="1" spans="1:9">
-      <c r="A24" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="65" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" ht="36" spans="1:9">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-    </row>
-    <row r="26" ht="54" spans="1:9">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-    </row>
-    <row r="27" ht="54" spans="1:9">
-      <c r="A27" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="65" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" ht="36" spans="1:9">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-    </row>
-    <row r="29" ht="36" spans="1:9">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="65" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-    </row>
-    <row r="30" ht="54" spans="1:9">
-      <c r="A30" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="65" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" ht="36" spans="1:9">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-    </row>
-    <row r="32" ht="36" spans="1:9">
-      <c r="A32" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="F32" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="65" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" ht="36" spans="1:9">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
+      <c r="I34" s="77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" ht="36" spans="1:9">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="77">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -5346,6 +5571,7 @@
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B20"/>
@@ -5354,6 +5580,7 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C20"/>
@@ -5362,6 +5589,7 @@
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="E9:E13"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="E17:E20"/>
@@ -5370,6 +5598,7 @@
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="F17:F20"/>
@@ -5378,6 +5607,7 @@
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="G17:G20"/>
@@ -5386,6 +5616,7 @@
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:H20"/>
@@ -5394,6 +5625,7 @@
     <mergeCell ref="H27:H29"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="I17:I20"/>
@@ -5402,9 +5634,10 @@
     <mergeCell ref="I27:I29"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 G7:G8 G34:G144">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 G7:G8 G36:G144">
       <formula1>$K$2:$K$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -5418,15 +5651,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5437,726 +5670,726 @@
     <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.4444444444444" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.16666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8333333333333" style="42" customWidth="1"/>
+    <col min="7" max="7" width="11.8333333333333" style="54" customWidth="1"/>
     <col min="8" max="8" width="31.8333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.16666666666667" style="43" customWidth="1"/>
+    <col min="9" max="9" width="8.16666666666667" style="55" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="1" ht="14.7" customHeight="1" spans="1:9">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" s="39" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="49" t="s">
+    <row r="1" s="51" customFormat="1" ht="14.7" customHeight="1" spans="1:9">
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="78"/>
+    </row>
+    <row r="2" s="51" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="39" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="39" customFormat="1" ht="25.5" customHeight="1" spans="1:10">
-      <c r="A3" s="52" t="s">
+    <row r="3" s="51" customFormat="1" ht="25.5" customHeight="1" spans="1:10">
+      <c r="A3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="39" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" s="39" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A4" s="49" t="s">
+    <row r="4" s="51" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A4" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
-    </row>
-    <row r="5" s="39" customFormat="1" ht="19.5" customHeight="1" spans="1:10">
-      <c r="A5" s="54" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
+    </row>
+    <row r="5" s="51" customFormat="1" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="39" t="s">
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" s="39" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="59">
+    <row r="6" s="51" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A6" s="71">
         <f>COUNTIF(F9:F998,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="72">
         <f>COUNTIF(F9:F998,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="72">
         <f>E6-D6-B6-A6</f>
         <v>10</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="73">
         <f>COUNTIF(F$9:F$998,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="74">
         <f>COUNTA(A9:A998)</f>
         <v>10</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="39" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" s="39" customFormat="1" ht="15" customHeight="1" spans="4:9">
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="69"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A8" s="63" t="s">
+    <row r="7" s="51" customFormat="1" ht="15" customHeight="1" spans="4:9">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" s="51" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A8" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="63" t="s">
+      <c r="F8" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" s="40" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A9" s="65" t="s">
+      <c r="H8" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" s="52" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A9" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" s="52" customFormat="1" ht="40" customHeight="1" spans="1:9">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:9">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+    </row>
+    <row r="12" ht="36" spans="1:9">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+    </row>
+    <row r="13" s="53" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+    </row>
+    <row r="14" ht="19" customHeight="1" spans="1:9">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+    </row>
+    <row r="15" ht="18" spans="1:9">
+      <c r="A15" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" s="53" customFormat="1" ht="41" customHeight="1" spans="1:9">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:9">
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+    </row>
+    <row r="18" ht="36" spans="1:9">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+    </row>
+    <row r="19" ht="36" spans="1:9">
+      <c r="A19" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" ht="54" spans="1:9">
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+    </row>
+    <row r="21" ht="41" customHeight="1" spans="1:9">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+    </row>
+    <row r="22" ht="18" spans="1:9">
+      <c r="A22" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="F22" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="G22" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="65" t="s">
+    </row>
+    <row r="23" ht="36" spans="1:9">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="1:9">
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:9">
+      <c r="A25" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H25" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="65" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" s="40" customFormat="1" ht="40" customHeight="1" spans="1:9">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:9">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-    </row>
-    <row r="12" ht="36" spans="1:9">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="65" t="s">
+      <c r="I25" s="77" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" ht="18" spans="1:9">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:9">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+    </row>
+    <row r="28" ht="21" customHeight="1" spans="1:9">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+    </row>
+    <row r="29" ht="21" customHeight="1" spans="1:9">
+      <c r="A29" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" ht="19" customHeight="1" spans="1:9">
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+    </row>
+    <row r="31" ht="35" customHeight="1" spans="1:9">
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+    </row>
+    <row r="32" ht="22" customHeight="1" spans="1:9">
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+    </row>
+    <row r="33" ht="22" customHeight="1" spans="1:9">
+      <c r="A33" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-    </row>
-    <row r="13" s="41" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="65" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-    </row>
-    <row r="14" ht="19" customHeight="1" spans="1:9">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-    </row>
-    <row r="15" ht="18" spans="1:9">
-      <c r="A15" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" s="65" t="s">
+      <c r="E33" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="F33" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H33" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="65" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" s="41" customFormat="1" ht="41" customHeight="1" spans="1:9">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:9">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-    </row>
-    <row r="18" ht="36" spans="1:9">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-    </row>
-    <row r="19" ht="36" spans="1:9">
-      <c r="A19" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="65" t="s">
+      <c r="I33" s="77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" ht="52" customHeight="1" spans="1:9">
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+    </row>
+    <row r="35" ht="18" spans="1:9">
+      <c r="A35" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="F35" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="65" t="s">
+      <c r="H35" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="65" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" ht="54" spans="1:9">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-    </row>
-    <row r="21" ht="41" customHeight="1" spans="1:9">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-    </row>
-    <row r="22" ht="18" spans="1:9">
-      <c r="A22" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="F22" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="G22" s="65" t="s">
+      <c r="I35" s="77" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" ht="42" customHeight="1" spans="1:9">
+      <c r="A36" s="77"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+    </row>
+    <row r="37" ht="99" customHeight="1" spans="1:9">
+      <c r="A37" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H37" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="65" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" ht="36" spans="1:9">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-    </row>
-    <row r="24" ht="21" customHeight="1" spans="1:9">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="G25" s="65" t="s">
+      <c r="I37" s="77" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" ht="18" spans="1:9">
+      <c r="A38" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="E38" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="G38" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="65" t="s">
+      <c r="H38" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="1:9">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:9">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-    </row>
-    <row r="28" ht="21" customHeight="1" spans="1:9">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-    </row>
-    <row r="29" ht="21" customHeight="1" spans="1:9">
-      <c r="A29" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="65" t="s">
+      <c r="I38" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="F29" s="65" t="s">
+    </row>
+    <row r="39" ht="36" spans="1:9">
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="G29" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="65" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" ht="19" customHeight="1" spans="1:9">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-    </row>
-    <row r="31" ht="35" customHeight="1" spans="1:9">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-    </row>
-    <row r="32" ht="22" customHeight="1" spans="1:9">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="65" t="s">
-        <v>285</v>
-      </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-    </row>
-    <row r="33" ht="22" customHeight="1" spans="1:9">
-      <c r="A33" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="C33" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="D33" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="F33" s="65" t="s">
-        <v>290</v>
-      </c>
-      <c r="G33" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" ht="52" customHeight="1" spans="1:9">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-    </row>
-    <row r="35" ht="18" spans="1:9">
-      <c r="A35" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="F35" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="G35" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="65" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" ht="42" customHeight="1" spans="1:9">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-    </row>
-    <row r="37" ht="99" customHeight="1" spans="1:9">
-      <c r="A37" s="65" t="s">
-        <v>300</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>301</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>302</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="E37" s="65" t="s">
-        <v>304</v>
-      </c>
-      <c r="F37" s="65" t="s">
-        <v>305</v>
-      </c>
-      <c r="G37" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="65" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" ht="18" spans="1:9">
-      <c r="A38" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="D38" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="E38" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="F38" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="G38" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="65" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" ht="36" spans="1:9">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="77">
@@ -6256,13 +6489,866 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="22.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="33.8333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.4" spans="1:7">
+      <c r="A1" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" ht="36" spans="1:7">
+      <c r="A2" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:7">
+      <c r="A3" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" ht="36" spans="1:7">
+      <c r="A4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" ht="36" spans="1:7">
+      <c r="A5" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:7">
+      <c r="A6" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:7">
+      <c r="A7" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:7">
+      <c r="A8" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" ht="36" spans="1:7">
+      <c r="A9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" ht="21" spans="1:1">
+      <c r="A10" s="50"/>
+    </row>
+    <row r="11" ht="21" spans="1:1">
+      <c r="A11" s="50"/>
+    </row>
+    <row r="12" ht="21" spans="1:1">
+      <c r="A12" s="50"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="user3@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="user3@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="user3@gmail.com"/>
+    <hyperlink ref="E6" r:id="rId1" display="user3@gmail.com"/>
+    <hyperlink ref="E7" r:id="rId1" display="user3@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId1" display="user3@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="26.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="27.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="30.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="47.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34.8" spans="1:7">
+      <c r="A1" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" ht="35" customHeight="1" spans="1:7">
+      <c r="A2" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" ht="36" spans="1:7">
+      <c r="A3" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:7">
+      <c r="A4" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" ht="37" customHeight="1" spans="1:7">
+      <c r="A5" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:7">
+      <c r="A6" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" ht="36" spans="1:7">
+      <c r="A7" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="1:7">
+      <c r="A8" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" ht="36" spans="1:7">
+      <c r="A9" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" ht="36" spans="1:7">
+      <c r="A10" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="16.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="16.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="11.7777777777778" style="40" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="19.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="20.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="41.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="25.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="52" customHeight="1" spans="1:9">
+      <c r="A1" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:9">
+      <c r="A2" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" ht="38" customHeight="1" spans="1:9">
+      <c r="A3" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="45">
+        <v>1</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" ht="37" customHeight="1" spans="1:9">
+      <c r="A4" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:9">
+      <c r="A5" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="45">
+        <v>2</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:9">
+      <c r="A6" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" ht="23" customHeight="1" spans="1:9">
+      <c r="A7" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="45">
+        <v>1</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:9">
+      <c r="A8" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="45">
+        <v>1</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:9">
+      <c r="A9" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:9">
+      <c r="A10" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="45">
+        <v>1</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:9">
+      <c r="A11" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -6277,7 +7363,7 @@
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="2:8">
       <c r="B1" s="2" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6341,16 +7427,16 @@
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
       <c r="H5" s="12" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
-        <v>317</v>
+        <v>392</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>318</v>
+        <v>393</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -6393,7 +7479,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>34</v>
@@ -6408,7 +7494,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>320</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6430,7 +7516,7 @@
       </c>
       <c r="F11" s="26">
         <f>Module1!D6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="27">
         <f>Module1!E6</f>
@@ -6438,7 +7524,7 @@
       </c>
       <c r="H11" s="28">
         <f>Module1!F6</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6451,8 +7537,7 @@
         <v>Module2</v>
       </c>
       <c r="D12" s="26">
-        <f>Module2!A6</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="26">
         <f>Module2!B6</f>
@@ -6468,89 +7553,103 @@
       </c>
       <c r="H12" s="28">
         <f>Module2!F6</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="B13" s="24">
+        <v>3</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="26">
+        <v>10</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="23"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="32">
         <f>SUM(D9:D13)</f>
-        <v>17</v>
-      </c>
-      <c r="E14" s="31">
+        <v>28</v>
+      </c>
+      <c r="E14" s="32">
         <f>SUM(E9:E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="32">
         <f>SUM(F9:F13)</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
         <f>SUM(G9:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="33">
         <f>SUM(H9:H13)</f>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="16"/>
-      <c r="B15" s="33"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="36" t="s">
-        <v>322</v>
+      <c r="C16" s="37" t="s">
+        <v>397</v>
       </c>
       <c r="D16" s="16"/>
-      <c r="E16" s="37">
+      <c r="E16" s="38">
         <f>(D14+E14)*100/(H14-G14)</f>
-        <v>94.4444444444444</v>
+        <v>100</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="G16" s="16"/>
-      <c r="H16" s="38"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="36" t="s">
-        <v>324</v>
+      <c r="C17" s="37" t="s">
+        <v>399</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="37">
+      <c r="E17" s="38">
         <f>D14*100/(H14-G14)</f>
-        <v>94.4444444444444</v>
+        <v>100</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="G17" s="16"/>
-      <c r="H17" s="38"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="16"/>

--- a/project/templates/Functional test_case.xlsx
+++ b/project/templates/Functional test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" tabRatio="821" activeTab="7"/>
+    <workbookView windowWidth="17771" windowHeight="8280" tabRatio="821" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -3205,6 +3205,135 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Đã tạo hình ảnh"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5337810" y="3933825"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Đã tạo hình ảnh"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5337810" y="3933825"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74930</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1617980" y="3188335"/>
+          <a:ext cx="4361180" cy="2955290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3526,7 +3655,7 @@
   <sheetPr/>
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3733,7 +3862,7 @@
   <sheetPr/>
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3963,9 +4092,9 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6:G6"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4872,7 +5001,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:I35"/>
     </sheetView>
@@ -7000,8 +7129,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -7345,10 +7474,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -7654,6 +7783,9 @@
     <row r="18" spans="3:4">
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7671,6 +7803,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"tahoma,Regular"&amp;8Internal use&amp;R&amp;"Tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/project/templates/Functional test_case.xlsx
+++ b/project/templates/Functional test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17771" windowHeight="8280" tabRatio="821" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="22188" windowHeight="8280" tabRatio="821" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -3289,48 +3289,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>74930</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>92710</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1617980" y="3188335"/>
-          <a:ext cx="4361180" cy="2955290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7477,7 +7435,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
